--- a/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -34,6 +34,54 @@
   </si>
   <si>
     <t>Конвертированная строка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/enter07.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The great [CS:N]Dusknoir[CR]\'s from the\nfuture! Isn\'t that a startling piece of news!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if you think about it, a\nPokémon hatching from an Egg...[K] Wouldn\'t that\nbe like coming from the future?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Pardon?[K] You didn\'t\nunderstand that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That is true. It isn\'t an easy\nidea to grasp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I didn\'t understand it when I\nsaid it, either! ♪[K] Eep! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Великий [CS:N]Даскнуар[CR] прибыл из\nбудущего! Вот так поразительная новость!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но если так подумать, то Покемон,\nвылупляющийся из Яйца...[K] Разве это не\nпохоже на пришествие из будущего?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Что?[K] Ты ничего не понимаешь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё верно. Эту мысль непросто\nпостичь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хотя, когда я это сказала, я\nтоже её не поняла! ♪[K] Хии! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåìéëéê [CS:N]Äàòëîôàñ[CR] ðñéáúì éè\náôäôþåãï! Âïó óàë ðïñàèéóåìûîàÿ îïâïòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï åòìé óàë ðïäôíàóû, óï Ðïëåíïî,\nâúìôðìÿýþéêòÿ éè Ÿêøà...[K] Ñàèâå üóï îå\nðïöïçå îà ðñéšåòóâéå éè áôäôþåãï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Œóï?[K] Óú îéœåãï îå ðïîéíàåšû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ âåñîï. Üóô íúòìû îåðñïòóï\nðïòóéœû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóÿ, ëïãäà ÿ üóï òëàèàìà, ÿ\nóïçå åæ îå ðïîÿìà! ♪[K] Öéé! ♪</t>
   </si>
 </sst>
 </file>
@@ -397,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +478,79 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>230</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>233</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>236</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>239</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -82,6 +82,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Öïóÿ, ëïãäà ÿ üóï òëàèàìà, ÿ\nóïçå åæ îå ðïîÿìà! ♪[K] Öéé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m glad to see you back safe\nand sound! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you were gone, everyone\nwas so concerned over you…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why, it seemed to sap the cheer\nout of all Treasure Town.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But all that\'s over now! I\'m so\nglad to see you home safe!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рада, что вы вернулись в\nцелости и сохранности! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока вас не было, все так за вас\nпереживали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Такое ощущение, что без вас Город\nСокровищ был гораздо мрачнее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но всё наконец закончилось!\nЯ рада, что вы снова дома!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàäà, œóï âú âåñîôìéòû â\nøåìïòóé é òïöñàîîïòóé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëà âàò îå áúìï, âòå óàë èà âàò\nðåñåçéâàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàëïå ïþôþåîéå, œóï áåè âàò Ãïñïä\nÒïëñïâéþ áúì ãïñàèäï íñàœîåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âòæ îàëïîåø èàëïîœéìïòû!\nŸ ñàäà, œóï âú òîïâà äïíà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please don\'t fail us! Please save\nthe world!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, не подведите нас!\nПожалуйста, спасите мир!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, îå ðïäâåäéóå îàò!\nÐïçàìôêòóà, òðàòéóå íéñ!</t>
   </si>
 </sst>
 </file>
@@ -112,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,11 +189,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -163,6 +217,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,17 +598,89 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>239</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>192</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>195</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>198</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
+        <v>201</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>166</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñïšô, îå ðïäâåäéóå îàò!\nÐïçàìôêòóà, òðàòéóå íéñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eep! I\'m happy you graduated! ♪\nCongratulations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you\'ll keep up with your\nexploring! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иии! Я так рада, что вы\nвыпустились! ♪ Поздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы и дальше будете\nзаниматься исследованиями! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ééé! Ÿ óàë ñàäà, œóï âú\nâúðôòóéìéòû! ♪ Ðïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú é äàìûšå áôäåóå\nèàîéíàóûòÿ éòòìåäïâàîéÿíé! ♪</t>
   </si>
 </sst>
 </file>
@@ -157,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,11 +216,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -223,6 +252,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,17 +705,46 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
         <v>166</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>137</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>140</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Ченси.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -145,6 +145,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû, âú é äàìûšå áôäåóå\nèàîéíàóûòÿ éòòìåäïâàîéÿíé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uh... Is it true? Team [CS:X]Charm[CR] is\nvisiting the guild? Really-really?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, really! What should I do?\nWhat should I do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]But, anyways…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эм... Правда? Команда [CS:X]Шарм[CR]\nпосетила гильдию? Честно-честно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, вот это да! Что же делать?\nЧто же делать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Но, так или иначе...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üí... Ðñàâäà? Ëïíàîäà [CS:X]Šàñí[CR]\nðïòåóéìà ãéìûäéý? Œåòóîï-œåòóîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, âïó üóï äà! Œóï çå äåìàóû?\nŒóï çå äåìàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îï, óàë éìé éîàœå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The two of you can do this!\nI know it! It just takes effort!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The way I can be standing here,\njust as always... I owe that to you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honestly, thank you! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У вас всё получится! Я уверена\nв этом! Просто нужно поднажать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> То, что я по прежнему могу быть\nздесь... За это я у вас в долгу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Честно, спасибо вам! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô âàò âòæ ðïìôœéóòÿ! Ÿ ôâåñåîà\nâ üóïí! Ðñïòóï îôçîï ðïäîàçàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óï, œóï ÿ ðï ðñåçîåíô íïãô áúóû\nèäåòû... Èà üóï ÿ ô âàò â äïìãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œåòóîï, òðàòéáï âàí! ♪</t>
   </si>
 </sst>
 </file>
@@ -540,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,17 +797,118 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>140</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>107</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6">
+        <v>113</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
